--- a/021/021/Product Data.xlsx
+++ b/021/021/Product Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Product"/>
@@ -549,7 +549,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,6 +562,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -598,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -625,7 +631,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -643,16 +649,25 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,11 +978,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="20" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="20" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="21" width="30.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
@@ -1686,7 +1701,7 @@
   </sheetPr>
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2802,7 +2817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A80" s="4">
         <v>10</v>
       </c>
@@ -2816,7 +2831,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A81" s="4">
         <v>10</v>
       </c>
@@ -2830,7 +2845,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A82" s="4">
         <v>11</v>
       </c>
@@ -2844,7 +2859,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A83" s="4">
         <v>11</v>
       </c>
@@ -2858,7 +2873,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A84" s="4">
         <v>11</v>
       </c>
@@ -2872,7 +2887,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A85" s="4">
         <v>11</v>
       </c>
@@ -2886,7 +2901,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A86" s="4">
         <v>11</v>
       </c>
@@ -2900,7 +2915,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A87" s="4">
         <v>11</v>
       </c>
@@ -2914,7 +2929,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A88" s="4">
         <v>11</v>
       </c>
@@ -2928,7 +2943,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A89" s="4">
         <v>11</v>
       </c>
@@ -2942,7 +2957,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A90" s="4">
         <v>12</v>
       </c>
@@ -2956,7 +2971,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A91" s="4">
         <v>12</v>
       </c>
@@ -2970,7 +2985,7 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A92" s="4">
         <v>12</v>
       </c>
@@ -2984,7 +2999,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A93" s="4">
         <v>12</v>
       </c>
@@ -2998,7 +3013,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A94" s="4">
         <v>12</v>
       </c>
@@ -3012,7 +3027,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A95" s="4">
         <v>12</v>
       </c>
@@ -3026,7 +3041,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A96" s="4">
         <v>12</v>
       </c>
@@ -3040,7 +3055,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A97" s="4">
         <v>12</v>
       </c>
@@ -3054,7 +3069,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
       <c r="A98" s="4">
         <v>13</v>
       </c>
@@ -3068,7 +3083,7 @@
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
       <c r="A99" s="4">
         <v>13</v>
       </c>
@@ -3082,7 +3097,7 @@
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
       <c r="A100" s="4">
         <v>14</v>
       </c>
@@ -3096,7 +3111,7 @@
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
       <c r="A101" s="4">
         <v>14</v>
       </c>
@@ -3110,7 +3125,7 @@
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
       <c r="A102" s="4">
         <v>15</v>
       </c>
@@ -3124,7 +3139,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
       <c r="A103" s="4">
         <v>15</v>
       </c>
@@ -3138,7 +3153,7 @@
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
       <c r="A104" s="4">
         <v>16</v>
       </c>
@@ -3152,7 +3167,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
       <c r="A105" s="4">
         <v>16</v>
       </c>
@@ -3166,7 +3181,7 @@
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
       <c r="A106" s="4">
         <v>17</v>
       </c>
@@ -3180,7 +3195,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
       <c r="A107" s="4">
         <v>17</v>
       </c>
@@ -4032,7 +4047,7 @@
   </sheetPr>
   <dimension ref="A1:D617"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4061,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
@@ -4075,7 +4090,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>11</v>
@@ -4089,7 +4104,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>12</v>
@@ -4103,7 +4118,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>13</v>
@@ -4117,7 +4132,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
@@ -4131,7 +4146,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>11</v>
@@ -4145,7 +4160,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>12</v>
@@ -4159,7 +4174,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
@@ -4173,7 +4188,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>10</v>
@@ -4187,7 +4202,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>11</v>
@@ -4201,7 +4216,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>12</v>
@@ -4215,7 +4230,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>13</v>
@@ -4229,7 +4244,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>10</v>
@@ -4243,7 +4258,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>11</v>
@@ -4257,7 +4272,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>12</v>
@@ -4271,7 +4286,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>13</v>
@@ -4285,7 +4300,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>10</v>
@@ -4299,7 +4314,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>11</v>
@@ -4313,7 +4328,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>12</v>
@@ -4327,7 +4342,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>13</v>
@@ -4341,7 +4356,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>10</v>
@@ -4355,7 +4370,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>11</v>
@@ -4369,7 +4384,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>12</v>
@@ -4383,7 +4398,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>13</v>
@@ -4397,7 +4412,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>10</v>
@@ -4411,7 +4426,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>11</v>
@@ -4425,7 +4440,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>12</v>
@@ -4439,7 +4454,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>13</v>
@@ -4453,7 +4468,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>10</v>
@@ -4467,7 +4482,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>11</v>
@@ -4481,7 +4496,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>12</v>
@@ -4495,7 +4510,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>13</v>
@@ -4509,7 +4524,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>10</v>
@@ -4523,7 +4538,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>11</v>
@@ -4537,7 +4552,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>12</v>
@@ -4551,7 +4566,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>13</v>
@@ -4565,7 +4580,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>10</v>
@@ -4579,7 +4594,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>11</v>
@@ -4593,7 +4608,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>12</v>
@@ -4607,7 +4622,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>13</v>
@@ -4621,7 +4636,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>10</v>
@@ -4635,7 +4650,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>11</v>
@@ -4649,7 +4664,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>12</v>
@@ -4663,7 +4678,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>13</v>
@@ -4677,7 +4692,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>10</v>
@@ -4691,7 +4706,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>11</v>
@@ -4705,7 +4720,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>12</v>
@@ -4719,7 +4734,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>13</v>
@@ -4733,7 +4748,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>10</v>
@@ -4747,7 +4762,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>11</v>
@@ -4761,7 +4776,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>12</v>
@@ -4775,7 +4790,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>13</v>
@@ -4789,7 +4804,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>10</v>
@@ -4803,7 +4818,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>11</v>
@@ -4817,7 +4832,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>12</v>
@@ -4831,7 +4846,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>13</v>
@@ -4845,7 +4860,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>10</v>
@@ -4859,7 +4874,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>11</v>
@@ -4873,7 +4888,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>12</v>
@@ -4887,7 +4902,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>13</v>
@@ -4901,7 +4916,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>10</v>
@@ -4915,7 +4930,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>11</v>
@@ -4929,7 +4944,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>12</v>
@@ -4943,7 +4958,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>13</v>
@@ -4957,7 +4972,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>10</v>
@@ -4971,7 +4986,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>11</v>
@@ -4985,7 +5000,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>12</v>
@@ -4999,7 +5014,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>13</v>
@@ -5013,7 +5028,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>10</v>
@@ -5027,7 +5042,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>11</v>
@@ -5041,7 +5056,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>12</v>
@@ -5055,7 +5070,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>13</v>
@@ -5069,7 +5084,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>10</v>
@@ -5083,7 +5098,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>11</v>
@@ -5097,7 +5112,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>12</v>
@@ -5111,7 +5126,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>13</v>
@@ -5125,7 +5140,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>10</v>
@@ -5139,7 +5154,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>11</v>
@@ -5153,7 +5168,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>12</v>
@@ -5167,7 +5182,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>13</v>
@@ -5181,7 +5196,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>10</v>
@@ -5195,7 +5210,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>11</v>
@@ -5209,7 +5224,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>12</v>
@@ -5223,7 +5238,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>13</v>
@@ -5237,7 +5252,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>10</v>
@@ -5251,7 +5266,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>11</v>
@@ -5265,7 +5280,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>12</v>
@@ -5279,7 +5294,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>13</v>
@@ -5293,7 +5308,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>10</v>
@@ -5307,7 +5322,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>11</v>
@@ -5321,7 +5336,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>12</v>
@@ -5335,7 +5350,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>13</v>
@@ -5349,7 +5364,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>10</v>
@@ -5363,7 +5378,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>11</v>
@@ -5377,7 +5392,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>12</v>
@@ -5391,7 +5406,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>13</v>
@@ -5405,7 +5420,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>10</v>
@@ -5419,7 +5434,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>11</v>
@@ -5433,7 +5448,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>12</v>
@@ -5447,7 +5462,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>13</v>
@@ -5461,7 +5476,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>10</v>
@@ -5475,7 +5490,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>11</v>
@@ -5489,7 +5504,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>12</v>
@@ -5503,7 +5518,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>13</v>
@@ -5517,7 +5532,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>10</v>
@@ -5531,7 +5546,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>11</v>
@@ -5545,7 +5560,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>12</v>
@@ -5559,7 +5574,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>13</v>
@@ -5573,7 +5588,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>10</v>
@@ -5587,7 +5602,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>11</v>
@@ -5601,7 +5616,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>12</v>
@@ -5615,7 +5630,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>13</v>
@@ -5629,7 +5644,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>10</v>
@@ -5643,7 +5658,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>11</v>
@@ -5657,7 +5672,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>12</v>
@@ -5671,7 +5686,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>13</v>
@@ -5685,7 +5700,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>10</v>
@@ -5699,7 +5714,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>11</v>
@@ -5713,7 +5728,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>12</v>
@@ -5727,7 +5742,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>13</v>
@@ -5741,7 +5756,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>10</v>
@@ -5755,7 +5770,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>11</v>
@@ -5769,7 +5784,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>12</v>
@@ -5783,7 +5798,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>13</v>
@@ -5797,7 +5812,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>10</v>
@@ -5811,7 +5826,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>11</v>
@@ -5825,7 +5840,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>12</v>
@@ -5839,7 +5854,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>13</v>
@@ -5853,7 +5868,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>10</v>
@@ -5867,7 +5882,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>11</v>
@@ -5881,7 +5896,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>12</v>
@@ -5895,7 +5910,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>13</v>
@@ -5909,7 +5924,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>10</v>
@@ -5923,7 +5938,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>11</v>
@@ -5937,7 +5952,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>12</v>
@@ -5951,7 +5966,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>13</v>
@@ -5965,7 +5980,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>10</v>
@@ -5979,7 +5994,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>11</v>
@@ -5993,7 +6008,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>12</v>
@@ -6007,7 +6022,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>13</v>
@@ -6021,7 +6036,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>10</v>
@@ -6035,7 +6050,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>11</v>
@@ -6049,7 +6064,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>12</v>
@@ -6063,7 +6078,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>13</v>
@@ -6077,7 +6092,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>10</v>
@@ -6091,7 +6106,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>11</v>
@@ -6105,7 +6120,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>12</v>
@@ -6119,7 +6134,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>13</v>
@@ -6133,7 +6148,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>10</v>
@@ -6147,7 +6162,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>11</v>
@@ -6161,7 +6176,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>12</v>
@@ -6175,7 +6190,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>13</v>
@@ -6189,7 +6204,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>10</v>
@@ -6203,7 +6218,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>11</v>
@@ -6217,7 +6232,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>12</v>
@@ -6231,7 +6246,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>13</v>
@@ -6245,7 +6260,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>10</v>
@@ -6259,7 +6274,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>11</v>
@@ -6273,7 +6288,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>12</v>
@@ -6287,7 +6302,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>13</v>
@@ -6301,7 +6316,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>10</v>
@@ -6315,7 +6330,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>11</v>
@@ -6329,7 +6344,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>12</v>
@@ -6343,7 +6358,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>13</v>
@@ -6357,7 +6372,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>10</v>
@@ -6371,7 +6386,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>11</v>
@@ -6385,7 +6400,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>12</v>
@@ -6399,7 +6414,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>13</v>
@@ -6413,7 +6428,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>10</v>
@@ -6427,7 +6442,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>11</v>
@@ -6441,7 +6456,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>12</v>
@@ -6455,7 +6470,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>13</v>
@@ -6469,7 +6484,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>10</v>
@@ -6483,7 +6498,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>11</v>
@@ -6497,7 +6512,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>12</v>
@@ -6511,7 +6526,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>13</v>
@@ -6525,7 +6540,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>10</v>
@@ -6539,7 +6554,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>11</v>
@@ -6553,7 +6568,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>12</v>
@@ -6567,7 +6582,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>13</v>
@@ -6581,7 +6596,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>10</v>
@@ -6595,7 +6610,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>11</v>
@@ -6609,7 +6624,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>12</v>
@@ -6623,7 +6638,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>13</v>
@@ -6637,7 +6652,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>10</v>
@@ -6651,7 +6666,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>11</v>
@@ -6665,7 +6680,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>12</v>
@@ -6679,7 +6694,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>13</v>
@@ -6693,7 +6708,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>10</v>
@@ -6707,7 +6722,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>11</v>
@@ -6721,7 +6736,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>12</v>
@@ -6735,7 +6750,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>13</v>
@@ -6749,7 +6764,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>10</v>
@@ -6763,7 +6778,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>11</v>
@@ -6777,7 +6792,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>12</v>
@@ -6791,7 +6806,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>13</v>
@@ -6805,7 +6820,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>10</v>
@@ -6819,7 +6834,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>11</v>
@@ -6833,7 +6848,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>12</v>
@@ -6847,7 +6862,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>13</v>
@@ -6861,7 +6876,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>10</v>
@@ -6875,7 +6890,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>11</v>
@@ -6889,7 +6904,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>12</v>
@@ -6903,7 +6918,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>13</v>
@@ -6917,7 +6932,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>10</v>
@@ -6931,7 +6946,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>11</v>
@@ -6945,7 +6960,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>12</v>
@@ -6959,7 +6974,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>13</v>
@@ -6973,7 +6988,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>10</v>
@@ -6987,7 +7002,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>11</v>
@@ -7001,7 +7016,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>12</v>
@@ -7015,7 +7030,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>13</v>
@@ -7029,7 +7044,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>10</v>
@@ -7043,7 +7058,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>11</v>
@@ -7057,7 +7072,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>12</v>
@@ -7071,7 +7086,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>13</v>
@@ -7085,7 +7100,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>10</v>
@@ -7099,7 +7114,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>11</v>
@@ -7113,7 +7128,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>12</v>
@@ -7127,7 +7142,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>13</v>
@@ -7141,7 +7156,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>10</v>
@@ -7155,7 +7170,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>11</v>
@@ -7169,7 +7184,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>12</v>
@@ -7183,7 +7198,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>13</v>
@@ -7197,7 +7212,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>10</v>
@@ -7211,7 +7226,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>11</v>
@@ -7225,7 +7240,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>12</v>
@@ -7239,7 +7254,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>13</v>
@@ -7253,7 +7268,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>10</v>
@@ -7267,7 +7282,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>11</v>
@@ -7281,7 +7296,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>12</v>
@@ -7295,7 +7310,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>13</v>
@@ -7309,7 +7324,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>10</v>
@@ -7323,7 +7338,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>11</v>
@@ -7337,7 +7352,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>12</v>
@@ -7351,7 +7366,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>13</v>
@@ -7365,7 +7380,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>10</v>
@@ -7379,7 +7394,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>11</v>
@@ -7393,7 +7408,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>12</v>
@@ -7407,7 +7422,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>13</v>
@@ -7421,7 +7436,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>10</v>
@@ -7435,7 +7450,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>11</v>
@@ -7449,7 +7464,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>12</v>
@@ -7463,7 +7478,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>13</v>
@@ -7477,7 +7492,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>10</v>
@@ -7491,7 +7506,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>11</v>
@@ -7505,7 +7520,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>12</v>
@@ -7519,7 +7534,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>13</v>
@@ -7533,7 +7548,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>10</v>
@@ -7547,7 +7562,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>11</v>
@@ -7561,7 +7576,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>12</v>
@@ -7575,7 +7590,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>13</v>
@@ -7589,7 +7604,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>10</v>
@@ -7603,7 +7618,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>11</v>
@@ -7617,7 +7632,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>12</v>
@@ -7631,7 +7646,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>13</v>
@@ -7645,7 +7660,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>10</v>
@@ -7659,7 +7674,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>11</v>
@@ -7673,7 +7688,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>12</v>
@@ -7687,7 +7702,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>13</v>
@@ -7701,7 +7716,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>10</v>
@@ -7715,7 +7730,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>11</v>
@@ -7729,7 +7744,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>12</v>
@@ -7743,7 +7758,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>13</v>
@@ -7757,7 +7772,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>10</v>
@@ -7771,7 +7786,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>11</v>
@@ -7785,7 +7800,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>12</v>
@@ -7799,7 +7814,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>13</v>
@@ -7813,7 +7828,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>10</v>
@@ -7827,7 +7842,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>11</v>
@@ -7841,7 +7856,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>12</v>
@@ -7855,7 +7870,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>13</v>
@@ -7869,7 +7884,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>10</v>
@@ -7883,7 +7898,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>11</v>
@@ -7897,7 +7912,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>12</v>
@@ -7911,7 +7926,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>13</v>
@@ -7925,7 +7940,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>10</v>
@@ -7939,7 +7954,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>11</v>
@@ -7953,7 +7968,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>12</v>
@@ -7967,7 +7982,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>13</v>
@@ -7981,7 +7996,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>10</v>
@@ -7995,7 +8010,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>11</v>
@@ -8009,7 +8024,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>12</v>
@@ -8023,7 +8038,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>13</v>
@@ -8037,7 +8052,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>10</v>
@@ -8051,7 +8066,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>11</v>
@@ -8065,7 +8080,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>12</v>
@@ -8079,7 +8094,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>13</v>
@@ -8093,7 +8108,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>10</v>
@@ -8107,7 +8122,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>11</v>
@@ -8121,7 +8136,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>12</v>
@@ -8135,7 +8150,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>13</v>
@@ -8149,7 +8164,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>10</v>
@@ -8163,7 +8178,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>11</v>
@@ -8177,7 +8192,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>12</v>
@@ -8191,7 +8206,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>13</v>
@@ -8205,7 +8220,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>10</v>
@@ -8219,7 +8234,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>11</v>
@@ -8233,7 +8248,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>12</v>
@@ -8247,7 +8262,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>13</v>
@@ -8261,7 +8276,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>10</v>
@@ -8275,7 +8290,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>11</v>
@@ -8289,7 +8304,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>12</v>
@@ -8303,7 +8318,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>13</v>
@@ -8317,7 +8332,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>10</v>
@@ -8331,7 +8346,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>11</v>
@@ -8345,7 +8360,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>12</v>
@@ -8359,7 +8374,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>13</v>
@@ -8373,7 +8388,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>10</v>
@@ -8387,7 +8402,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>11</v>
@@ -8401,7 +8416,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>12</v>
@@ -8415,7 +8430,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>13</v>
@@ -8429,7 +8444,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>10</v>
@@ -8443,7 +8458,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>11</v>
@@ -8457,7 +8472,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>12</v>
@@ -8471,7 +8486,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>13</v>
@@ -8485,7 +8500,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>10</v>
@@ -8499,7 +8514,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>11</v>
@@ -8513,7 +8528,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>12</v>
@@ -8527,7 +8542,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>13</v>
@@ -8541,7 +8556,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>10</v>
@@ -8555,7 +8570,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>11</v>
@@ -8569,7 +8584,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>12</v>
@@ -8583,7 +8598,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>13</v>
@@ -8597,7 +8612,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C326" s="7" t="s">
         <v>10</v>
@@ -8611,7 +8626,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>11</v>
@@ -8625,7 +8640,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>12</v>
@@ -8639,7 +8654,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C329" s="7" t="s">
         <v>13</v>
@@ -8653,7 +8668,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>10</v>
@@ -8667,7 +8682,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>11</v>
@@ -8681,7 +8696,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>12</v>
@@ -8695,7 +8710,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>13</v>
@@ -8709,7 +8724,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>10</v>
@@ -8723,7 +8738,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C335" s="7" t="s">
         <v>11</v>
@@ -8737,7 +8752,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>12</v>
@@ -8751,7 +8766,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>13</v>
@@ -8765,7 +8780,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>10</v>
@@ -8779,7 +8794,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>11</v>
@@ -8793,7 +8808,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>12</v>
@@ -8807,7 +8822,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>13</v>
@@ -8821,7 +8836,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>10</v>
@@ -8835,7 +8850,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C343" s="7" t="s">
         <v>11</v>
@@ -8849,7 +8864,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C344" s="7" t="s">
         <v>12</v>
@@ -8863,7 +8878,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>13</v>
@@ -8877,7 +8892,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>10</v>
@@ -8891,7 +8906,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>11</v>
@@ -8905,7 +8920,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>12</v>
@@ -8919,7 +8934,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>13</v>
@@ -8933,7 +8948,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>10</v>
@@ -8947,7 +8962,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>11</v>
@@ -8961,7 +8976,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>12</v>
@@ -8975,7 +8990,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C353" s="7" t="s">
         <v>13</v>
@@ -8989,7 +9004,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>10</v>
@@ -9003,7 +9018,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>11</v>
@@ -9017,7 +9032,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>12</v>
@@ -9031,7 +9046,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>13</v>
@@ -9045,7 +9060,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>10</v>
@@ -9059,7 +9074,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>11</v>
@@ -9073,7 +9088,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C360" s="7" t="s">
         <v>12</v>
@@ -9087,7 +9102,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>13</v>
@@ -9101,7 +9116,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C362" s="7" t="s">
         <v>10</v>
@@ -9115,7 +9130,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>11</v>
@@ -9129,7 +9144,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>12</v>
@@ -9143,7 +9158,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>13</v>
@@ -9157,7 +9172,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>10</v>
@@ -9171,7 +9186,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C367" s="7" t="s">
         <v>11</v>
@@ -9185,7 +9200,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C368" s="7" t="s">
         <v>12</v>
@@ -9199,7 +9214,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C369" s="7" t="s">
         <v>13</v>
@@ -9213,7 +9228,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>10</v>
@@ -9227,7 +9242,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>11</v>
@@ -9241,7 +9256,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C372" s="7" t="s">
         <v>12</v>
@@ -9255,7 +9270,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>13</v>
@@ -9269,7 +9284,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>10</v>
@@ -9283,7 +9298,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C375" s="7" t="s">
         <v>11</v>
@@ -9297,7 +9312,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C376" s="7" t="s">
         <v>12</v>
@@ -9311,7 +9326,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>13</v>
@@ -9325,7 +9340,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C378" s="7" t="s">
         <v>10</v>
@@ -9339,7 +9354,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C379" s="7" t="s">
         <v>11</v>
@@ -9353,7 +9368,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>12</v>
@@ -9367,7 +9382,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C381" s="7" t="s">
         <v>13</v>
@@ -9381,7 +9396,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>10</v>
@@ -9395,7 +9410,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>11</v>
@@ -9409,7 +9424,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>12</v>
@@ -9423,7 +9438,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C385" s="7" t="s">
         <v>13</v>
@@ -9437,7 +9452,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C386" s="7" t="s">
         <v>10</v>
@@ -9451,7 +9466,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>11</v>
@@ -9465,7 +9480,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C388" s="7" t="s">
         <v>12</v>
@@ -9479,7 +9494,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C389" s="7" t="s">
         <v>13</v>
@@ -9493,7 +9508,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>10</v>
@@ -9507,7 +9522,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C391" s="7" t="s">
         <v>11</v>
@@ -9521,7 +9536,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C392" s="7" t="s">
         <v>12</v>
@@ -9535,7 +9550,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>13</v>
@@ -9549,7 +9564,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C394" s="7" t="s">
         <v>10</v>
@@ -9563,7 +9578,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C395" s="7" t="s">
         <v>11</v>
@@ -9577,7 +9592,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>12</v>
@@ -9591,7 +9606,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>13</v>
@@ -9605,7 +9620,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>10</v>
@@ -9619,7 +9634,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>11</v>
@@ -9633,7 +9648,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C400" s="7" t="s">
         <v>12</v>
@@ -9647,7 +9662,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C401" s="7" t="s">
         <v>13</v>
@@ -9661,7 +9676,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>10</v>
@@ -9675,7 +9690,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>11</v>
@@ -9689,7 +9704,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>12</v>
@@ -9703,7 +9718,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>13</v>
@@ -9717,7 +9732,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C406" s="7" t="s">
         <v>10</v>
@@ -9731,7 +9746,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C407" s="7" t="s">
         <v>11</v>
@@ -9745,7 +9760,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C408" s="7" t="s">
         <v>12</v>
@@ -9759,7 +9774,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C409" s="7" t="s">
         <v>13</v>
@@ -9773,7 +9788,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C410" s="7" t="s">
         <v>10</v>
@@ -9787,7 +9802,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C411" s="7" t="s">
         <v>11</v>
@@ -9801,7 +9816,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>12</v>
@@ -9815,7 +9830,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C413" s="7" t="s">
         <v>13</v>
@@ -9829,7 +9844,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C414" s="7" t="s">
         <v>10</v>
@@ -9843,7 +9858,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C415" s="7" t="s">
         <v>11</v>
@@ -9857,7 +9872,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C416" s="7" t="s">
         <v>12</v>
@@ -9871,7 +9886,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C417" s="7" t="s">
         <v>13</v>
@@ -9885,7 +9900,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C418" s="7" t="s">
         <v>10</v>
@@ -9899,7 +9914,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C419" s="7" t="s">
         <v>11</v>
@@ -9913,7 +9928,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C420" s="7" t="s">
         <v>12</v>
@@ -9927,7 +9942,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C421" s="7" t="s">
         <v>13</v>
@@ -9941,7 +9956,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C422" s="7" t="s">
         <v>10</v>
@@ -9955,7 +9970,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C423" s="7" t="s">
         <v>11</v>
@@ -9969,7 +9984,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C424" s="7" t="s">
         <v>12</v>
@@ -9983,7 +9998,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C425" s="7" t="s">
         <v>13</v>
@@ -9997,7 +10012,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C426" s="7" t="s">
         <v>10</v>
@@ -10011,7 +10026,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C427" s="7" t="s">
         <v>11</v>
@@ -10025,7 +10040,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C428" s="7" t="s">
         <v>12</v>
@@ -10039,7 +10054,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C429" s="7" t="s">
         <v>13</v>
@@ -10053,7 +10068,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C430" s="7" t="s">
         <v>10</v>
@@ -10067,7 +10082,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C431" s="7" t="s">
         <v>11</v>
@@ -10081,7 +10096,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C432" s="7" t="s">
         <v>12</v>
@@ -10095,7 +10110,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C433" s="7" t="s">
         <v>13</v>
@@ -10109,7 +10124,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C434" s="7" t="s">
         <v>10</v>
@@ -10123,7 +10138,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C435" s="7" t="s">
         <v>11</v>
@@ -10137,7 +10152,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C436" s="7" t="s">
         <v>12</v>
@@ -10151,7 +10166,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C437" s="7" t="s">
         <v>13</v>
@@ -10165,7 +10180,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C438" s="7" t="s">
         <v>10</v>
@@ -10179,7 +10194,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C439" s="7" t="s">
         <v>11</v>
@@ -10193,7 +10208,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C440" s="7" t="s">
         <v>12</v>
@@ -10207,7 +10222,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C441" s="7" t="s">
         <v>13</v>
@@ -10221,7 +10236,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C442" s="7" t="s">
         <v>10</v>
@@ -10235,7 +10250,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C443" s="7" t="s">
         <v>11</v>
@@ -10249,7 +10264,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C444" s="7" t="s">
         <v>12</v>
@@ -10263,7 +10278,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C445" s="7" t="s">
         <v>13</v>
@@ -10277,7 +10292,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C446" s="7" t="s">
         <v>10</v>
@@ -10291,7 +10306,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C447" s="7" t="s">
         <v>11</v>
@@ -10305,7 +10320,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C448" s="7" t="s">
         <v>12</v>
@@ -10319,7 +10334,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C449" s="7" t="s">
         <v>13</v>
@@ -10333,7 +10348,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C450" s="7" t="s">
         <v>10</v>
@@ -10347,7 +10362,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C451" s="7" t="s">
         <v>11</v>
@@ -10361,7 +10376,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C452" s="7" t="s">
         <v>12</v>
@@ -10375,7 +10390,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C453" s="7" t="s">
         <v>13</v>
@@ -10389,7 +10404,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C454" s="7" t="s">
         <v>10</v>
@@ -10403,7 +10418,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C455" s="7" t="s">
         <v>11</v>
@@ -10417,7 +10432,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C456" s="7" t="s">
         <v>12</v>
@@ -10431,7 +10446,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C457" s="7" t="s">
         <v>13</v>
@@ -10445,7 +10460,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C458" s="7" t="s">
         <v>10</v>
@@ -10459,7 +10474,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C459" s="7" t="s">
         <v>11</v>
@@ -10473,7 +10488,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C460" s="7" t="s">
         <v>12</v>
@@ -10487,7 +10502,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C461" s="7" t="s">
         <v>13</v>
@@ -10501,7 +10516,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C462" s="7" t="s">
         <v>10</v>
@@ -10515,7 +10530,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C463" s="7" t="s">
         <v>11</v>
@@ -10529,7 +10544,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C464" s="7" t="s">
         <v>12</v>
@@ -10543,7 +10558,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C465" s="7" t="s">
         <v>13</v>
@@ -10557,7 +10572,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C466" s="7" t="s">
         <v>10</v>
@@ -10571,7 +10586,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C467" s="7" t="s">
         <v>11</v>
@@ -10585,7 +10600,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C468" s="7" t="s">
         <v>12</v>
@@ -10599,7 +10614,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C469" s="7" t="s">
         <v>13</v>
@@ -10613,7 +10628,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C470" s="7" t="s">
         <v>10</v>
@@ -10627,7 +10642,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C471" s="7" t="s">
         <v>11</v>
@@ -10641,7 +10656,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C472" s="7" t="s">
         <v>12</v>
@@ -10655,7 +10670,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C473" s="7" t="s">
         <v>13</v>
@@ -10669,7 +10684,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C474" s="7" t="s">
         <v>10</v>
@@ -10683,7 +10698,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C475" s="7" t="s">
         <v>11</v>
@@ -10697,7 +10712,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C476" s="7" t="s">
         <v>12</v>
@@ -10711,7 +10726,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C477" s="7" t="s">
         <v>13</v>
@@ -10725,7 +10740,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C478" s="7" t="s">
         <v>10</v>
@@ -10739,7 +10754,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C479" s="7" t="s">
         <v>11</v>
@@ -10753,7 +10768,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C480" s="7" t="s">
         <v>12</v>
@@ -10767,7 +10782,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C481" s="7" t="s">
         <v>13</v>
@@ -10781,7 +10796,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C482" s="7" t="s">
         <v>10</v>
@@ -10795,7 +10810,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C483" s="7" t="s">
         <v>11</v>
@@ -10809,7 +10824,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C484" s="7" t="s">
         <v>12</v>
@@ -10823,7 +10838,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C485" s="7" t="s">
         <v>13</v>
@@ -10837,7 +10852,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C486" s="7" t="s">
         <v>10</v>
@@ -10851,7 +10866,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C487" s="7" t="s">
         <v>11</v>
@@ -10865,7 +10880,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C488" s="7" t="s">
         <v>12</v>
@@ -10879,7 +10894,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C489" s="7" t="s">
         <v>13</v>
@@ -10893,7 +10908,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C490" s="7" t="s">
         <v>10</v>
@@ -10907,7 +10922,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C491" s="7" t="s">
         <v>11</v>
@@ -10921,7 +10936,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C492" s="7" t="s">
         <v>12</v>
@@ -10935,7 +10950,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C493" s="7" t="s">
         <v>13</v>
@@ -10949,7 +10964,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C494" s="7" t="s">
         <v>10</v>
@@ -10963,7 +10978,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C495" s="7" t="s">
         <v>11</v>
@@ -10977,7 +10992,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C496" s="7" t="s">
         <v>12</v>
@@ -10991,7 +11006,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C497" s="7" t="s">
         <v>13</v>
@@ -11005,7 +11020,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C498" s="7" t="s">
         <v>10</v>
@@ -11019,7 +11034,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C499" s="7" t="s">
         <v>11</v>
@@ -11033,7 +11048,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C500" s="7" t="s">
         <v>12</v>
@@ -11047,7 +11062,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C501" s="7" t="s">
         <v>13</v>
@@ -11061,7 +11076,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C502" s="7" t="s">
         <v>10</v>
@@ -11075,7 +11090,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C503" s="7" t="s">
         <v>11</v>
@@ -11089,7 +11104,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C504" s="7" t="s">
         <v>12</v>
@@ -11103,7 +11118,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C505" s="7" t="s">
         <v>13</v>
@@ -11117,7 +11132,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C506" s="7" t="s">
         <v>10</v>
@@ -11131,7 +11146,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C507" s="7" t="s">
         <v>11</v>
@@ -11145,7 +11160,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C508" s="7" t="s">
         <v>12</v>
@@ -11159,7 +11174,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C509" s="7" t="s">
         <v>13</v>
@@ -11173,7 +11188,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C510" s="7" t="s">
         <v>10</v>
@@ -11187,7 +11202,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C511" s="7" t="s">
         <v>11</v>
@@ -11201,7 +11216,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C512" s="7" t="s">
         <v>12</v>
@@ -11215,7 +11230,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C513" s="7" t="s">
         <v>13</v>
@@ -11229,7 +11244,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C514" s="7" t="s">
         <v>10</v>
@@ -11243,7 +11258,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C515" s="7" t="s">
         <v>11</v>
@@ -11257,7 +11272,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C516" s="7" t="s">
         <v>12</v>
@@ -11271,7 +11286,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C517" s="7" t="s">
         <v>13</v>
@@ -11285,7 +11300,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C518" s="7" t="s">
         <v>10</v>
@@ -11299,7 +11314,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C519" s="7" t="s">
         <v>11</v>
@@ -11313,7 +11328,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C520" s="7" t="s">
         <v>12</v>
@@ -11327,7 +11342,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C521" s="7" t="s">
         <v>13</v>
@@ -11341,7 +11356,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C522" s="7" t="s">
         <v>10</v>
@@ -11355,7 +11370,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C523" s="7" t="s">
         <v>11</v>
@@ -11369,7 +11384,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C524" s="7" t="s">
         <v>12</v>
@@ -11383,7 +11398,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C525" s="7" t="s">
         <v>13</v>
@@ -11397,7 +11412,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C526" s="7" t="s">
         <v>10</v>
@@ -11411,7 +11426,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C527" s="7" t="s">
         <v>11</v>
@@ -11425,7 +11440,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C528" s="7" t="s">
         <v>12</v>
@@ -11439,7 +11454,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C529" s="7" t="s">
         <v>13</v>
@@ -11453,7 +11468,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C530" s="7" t="s">
         <v>10</v>
@@ -11467,7 +11482,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C531" s="7" t="s">
         <v>11</v>
@@ -11481,7 +11496,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C532" s="7" t="s">
         <v>12</v>
@@ -11495,7 +11510,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C533" s="7" t="s">
         <v>13</v>
@@ -11509,7 +11524,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C534" s="7" t="s">
         <v>10</v>
@@ -11523,7 +11538,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C535" s="7" t="s">
         <v>11</v>
@@ -11537,7 +11552,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C536" s="7" t="s">
         <v>12</v>
@@ -11551,7 +11566,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C537" s="7" t="s">
         <v>13</v>
@@ -11565,7 +11580,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C538" s="7" t="s">
         <v>10</v>
@@ -11579,7 +11594,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C539" s="7" t="s">
         <v>11</v>
@@ -11593,7 +11608,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C540" s="7" t="s">
         <v>12</v>
@@ -11607,7 +11622,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C541" s="7" t="s">
         <v>13</v>
@@ -11621,7 +11636,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C542" s="7" t="s">
         <v>10</v>
@@ -11635,7 +11650,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C543" s="7" t="s">
         <v>11</v>
@@ -11649,7 +11664,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C544" s="7" t="s">
         <v>12</v>
@@ -11663,7 +11678,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C545" s="7" t="s">
         <v>13</v>
@@ -11677,7 +11692,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C546" s="7" t="s">
         <v>10</v>
@@ -11691,7 +11706,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C547" s="7" t="s">
         <v>11</v>
@@ -11705,7 +11720,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C548" s="7" t="s">
         <v>12</v>
@@ -11719,7 +11734,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C549" s="7" t="s">
         <v>13</v>
@@ -11733,7 +11748,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C550" s="7" t="s">
         <v>10</v>
@@ -11747,7 +11762,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C551" s="7" t="s">
         <v>11</v>
@@ -11761,7 +11776,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C552" s="7" t="s">
         <v>12</v>
@@ -11775,7 +11790,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C553" s="7" t="s">
         <v>13</v>
@@ -11789,7 +11804,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C554" s="7" t="s">
         <v>10</v>
@@ -11803,7 +11818,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C555" s="7" t="s">
         <v>11</v>
@@ -11817,7 +11832,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C556" s="7" t="s">
         <v>12</v>
@@ -11831,7 +11846,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C557" s="7" t="s">
         <v>13</v>
@@ -11845,7 +11860,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C558" s="7" t="s">
         <v>10</v>
@@ -11859,7 +11874,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C559" s="7" t="s">
         <v>11</v>
@@ -11873,7 +11888,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C560" s="7" t="s">
         <v>12</v>
@@ -11887,7 +11902,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C561" s="7" t="s">
         <v>13</v>
@@ -11901,7 +11916,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C562" s="7" t="s">
         <v>10</v>
@@ -11915,7 +11930,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C563" s="7" t="s">
         <v>11</v>
@@ -11929,7 +11944,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C564" s="7" t="s">
         <v>12</v>
@@ -11943,7 +11958,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C565" s="7" t="s">
         <v>13</v>
@@ -11957,7 +11972,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C566" s="7" t="s">
         <v>10</v>
@@ -11971,7 +11986,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C567" s="7" t="s">
         <v>11</v>
@@ -11985,7 +12000,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C568" s="7" t="s">
         <v>12</v>
@@ -11999,7 +12014,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C569" s="7" t="s">
         <v>13</v>
@@ -12013,7 +12028,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C570" s="7" t="s">
         <v>10</v>
@@ -12027,7 +12042,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C571" s="7" t="s">
         <v>11</v>
@@ -12041,7 +12056,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C572" s="7" t="s">
         <v>12</v>
@@ -12055,7 +12070,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C573" s="7" t="s">
         <v>13</v>
@@ -12069,7 +12084,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C574" s="7" t="s">
         <v>10</v>
@@ -12083,7 +12098,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C575" s="7" t="s">
         <v>11</v>
@@ -12097,7 +12112,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C576" s="7" t="s">
         <v>12</v>
@@ -12111,7 +12126,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C577" s="7" t="s">
         <v>13</v>
@@ -12125,7 +12140,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C578" s="7" t="s">
         <v>10</v>
@@ -12139,7 +12154,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C579" s="7" t="s">
         <v>11</v>
@@ -12153,7 +12168,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C580" s="7" t="s">
         <v>12</v>
@@ -12167,7 +12182,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C581" s="7" t="s">
         <v>13</v>
@@ -12181,7 +12196,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C582" s="7" t="s">
         <v>10</v>
@@ -12195,7 +12210,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C583" s="7" t="s">
         <v>11</v>
@@ -12209,7 +12224,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C584" s="7" t="s">
         <v>12</v>
@@ -12223,7 +12238,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C585" s="7" t="s">
         <v>13</v>
@@ -12237,7 +12252,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C586" s="7" t="s">
         <v>10</v>
@@ -12251,7 +12266,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C587" s="7" t="s">
         <v>11</v>
@@ -12265,7 +12280,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C588" s="7" t="s">
         <v>12</v>
@@ -12279,7 +12294,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C589" s="7" t="s">
         <v>13</v>
@@ -12293,7 +12308,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C590" s="7" t="s">
         <v>10</v>
@@ -12307,7 +12322,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C591" s="7" t="s">
         <v>11</v>
@@ -12321,7 +12336,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C592" s="7" t="s">
         <v>12</v>
@@ -12335,7 +12350,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C593" s="7" t="s">
         <v>13</v>
@@ -12349,7 +12364,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C594" s="7" t="s">
         <v>10</v>
@@ -12363,7 +12378,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C595" s="7" t="s">
         <v>11</v>
@@ -12377,7 +12392,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C596" s="7" t="s">
         <v>12</v>
@@ -12391,7 +12406,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C597" s="7" t="s">
         <v>13</v>
@@ -12405,7 +12420,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C598" s="7" t="s">
         <v>10</v>
@@ -12419,7 +12434,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C599" s="7" t="s">
         <v>11</v>
@@ -12433,7 +12448,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C600" s="7" t="s">
         <v>12</v>
@@ -12447,7 +12462,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C601" s="7" t="s">
         <v>13</v>
@@ -12461,7 +12476,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C602" s="7" t="s">
         <v>10</v>
@@ -12475,7 +12490,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C603" s="7" t="s">
         <v>11</v>
@@ -12489,7 +12504,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C604" s="7" t="s">
         <v>12</v>
@@ -12503,7 +12518,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C605" s="7" t="s">
         <v>13</v>
@@ -12517,7 +12532,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C606" s="7" t="s">
         <v>10</v>
@@ -12531,7 +12546,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C607" s="7" t="s">
         <v>11</v>
@@ -12545,7 +12560,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C608" s="7" t="s">
         <v>12</v>
@@ -12559,7 +12574,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C609" s="7" t="s">
         <v>13</v>
@@ -12573,7 +12588,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C610" s="7" t="s">
         <v>10</v>
@@ -12587,7 +12602,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C611" s="7" t="s">
         <v>11</v>
@@ -12601,7 +12616,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C612" s="7" t="s">
         <v>12</v>
@@ -12615,7 +12630,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C613" s="7" t="s">
         <v>13</v>
@@ -12629,7 +12644,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C614" s="7" t="s">
         <v>10</v>
@@ -12643,7 +12658,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C615" s="7" t="s">
         <v>11</v>
@@ -12657,7 +12672,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C616" s="7" t="s">
         <v>12</v>
@@ -12671,7 +12686,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C617" s="7" t="s">
         <v>13</v>

--- a/021/021/Product Data.xlsx
+++ b/021/021/Product Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Product"/>
@@ -549,7 +549,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,12 +567,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -604,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -651,23 +645,11 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -973,16 +955,16 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="30.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
@@ -1205,7 +1187,7 @@
         <v>249</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1225,7 +1207,7 @@
         <v>299</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1245,7 +1227,7 @@
         <v>269</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1265,7 +1247,7 @@
         <v>209</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1285,7 +1267,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1305,7 +1287,7 @@
         <v>229</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1325,7 +1307,7 @@
         <v>279</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1345,7 +1327,7 @@
         <v>189</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1365,7 +1347,7 @@
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1385,7 +1367,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1405,7 +1387,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1425,7 +1407,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1445,12 +1427,12 @@
         <v>259</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>122</v>
@@ -1465,12 +1447,12 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>122</v>
@@ -1485,12 +1467,12 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>122</v>
@@ -1505,12 +1487,12 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>122</v>
@@ -1525,12 +1507,12 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>122</v>
@@ -1545,12 +1527,12 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>122</v>
@@ -1565,12 +1547,12 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>130</v>
@@ -1585,12 +1567,12 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>130</v>
@@ -1605,12 +1587,12 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>130</v>
@@ -1625,12 +1607,12 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>130</v>
@@ -1645,12 +1627,12 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>130</v>
@@ -1665,29 +1647,29 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A37" s="14"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="16"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4047,7 +4029,7 @@
   </sheetPr>
   <dimension ref="A1:D617"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/021/021/Product Data.xlsx
+++ b/021/021/Product Data.xlsx
@@ -967,7 +967,7 @@
     <col min="6" max="6" style="8" width="30.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="28.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -987,7 +987,7 @@
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>269</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>249</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>249</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>359</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>269</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>259</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>249</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>219</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>299</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>269</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="47.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>209</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="47.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="47.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>229</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="47.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>279</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="47.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>189</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="47.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
